--- a/_02_analises/Base_Inadimplencia_analises.xlsx
+++ b/_02_analises/Base_Inadimplencia_analises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinicius/Desktop/Mentorias/Github/exemplo/projeto_inadimplencia/_02_analises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B439313-86EC-8E45-837B-8F4D7816B149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4948C0-9894-C047-95DE-CC4D0E2E607C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{88496769-53D9-5B40-A32C-5DCB4B2AFDF9}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="20" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5036" uniqueCount="37">
   <si>
     <t>Variável</t>
   </si>
@@ -173,6 +173,9 @@
   <si>
     <t>Média de Inadimplencia</t>
   </si>
+  <si>
+    <t>Contagem de Escolaridade</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -266,11 +269,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -11353,12 +11372,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC81EE6C-0B4B-8340-9F25-66B33D0E87AD}" name="Tabela dinâmica7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC81EE6C-0B4B-8340-9F25-66B33D0E87AD}" name="Tabela dinâmica7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="4">
         <item x="2"/>
         <item x="0"/>
@@ -11396,14 +11415,23 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Média de Inadimplencia" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Contagem de Escolaridade" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -11412,7 +11440,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -40889,56 +40917,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DCEAF2-F312-124D-8C5C-3A4AD558B4BB}">
-  <dimension ref="A3:B7"/>
+  <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9">
         <v>0.3411764705882353</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7">
         <v>0.29523809523809524</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="10">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="7">
         <v>0.3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/_02_analises/Base_Inadimplencia_analises.xlsx
+++ b/_02_analises/Base_Inadimplencia_analises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinicius/Desktop/Mentorias/Github/exemplo/projeto_inadimplencia/_02_analises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4948C0-9894-C047-95DE-CC4D0E2E607C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FBB889-6137-944D-9B58-CFD1B9726B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{88496769-53D9-5B40-A32C-5DCB4B2AFDF9}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="24" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5036" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5043" uniqueCount="37">
   <si>
     <t>Variável</t>
   </si>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -269,13 +269,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -337,7 +352,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Tipo_Moradia" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="3">
+        <s v="Propria"/>
+        <s v="De favor"/>
+        <s v="Alugada"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Saldo_Investimento" numFmtId="0">
       <sharedItems/>
@@ -372,7 +391,7 @@
     <n v="67"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1169"/>
@@ -383,7 +402,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="5951"/>
@@ -394,7 +413,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2096"/>
@@ -405,7 +424,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="7882"/>
@@ -416,7 +435,7 @@
     <n v="53"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4870"/>
@@ -427,7 +446,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="9055"/>
@@ -438,7 +457,7 @@
     <n v="53"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2835"/>
@@ -449,7 +468,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="6948"/>
@@ -460,7 +479,7 @@
     <n v="61"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="3059"/>
@@ -471,7 +490,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="5234"/>
@@ -482,7 +501,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1295"/>
@@ -493,7 +512,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4308"/>
@@ -504,7 +523,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1567"/>
@@ -515,7 +534,7 @@
     <n v="60"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1199"/>
@@ -526,7 +545,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1403"/>
@@ -537,7 +556,7 @@
     <n v="32"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="1282"/>
@@ -548,7 +567,7 @@
     <n v="53"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2424"/>
@@ -559,7 +578,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="8072"/>
@@ -570,7 +589,7 @@
     <n v="44"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="12579"/>
@@ -581,7 +600,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="3430"/>
@@ -592,7 +611,7 @@
     <n v="48"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2134"/>
@@ -603,7 +622,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="2647"/>
@@ -614,7 +633,7 @@
     <n v="48"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2241"/>
@@ -625,7 +644,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1804"/>
@@ -636,7 +655,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2069"/>
@@ -647,7 +666,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1374"/>
@@ -658,7 +677,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="426"/>
@@ -669,7 +688,7 @@
     <n v="42"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Alto"/>
     <n v="409"/>
@@ -680,7 +699,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2415"/>
@@ -691,7 +710,7 @@
     <n v="63"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6836"/>
@@ -702,7 +721,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1913"/>
@@ -713,7 +732,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4020"/>
@@ -724,7 +743,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="5866"/>
@@ -735,7 +754,7 @@
     <n v="57"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1264"/>
@@ -746,7 +765,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1474"/>
@@ -757,7 +776,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4746"/>
@@ -768,7 +787,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="6110"/>
@@ -779,7 +798,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="2100"/>
@@ -790,7 +809,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1225"/>
@@ -801,7 +820,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="458"/>
@@ -812,7 +831,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2333"/>
@@ -823,7 +842,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1158"/>
@@ -834,7 +853,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="6204"/>
@@ -845,7 +864,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="6187"/>
@@ -856,7 +875,7 @@
     <n v="58"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6143"/>
@@ -867,7 +886,7 @@
     <n v="35"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1393"/>
@@ -878,7 +897,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2299"/>
@@ -889,7 +908,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="1352"/>
@@ -900,7 +919,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="7228"/>
@@ -911,7 +930,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="2073"/>
@@ -922,7 +941,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2333"/>
@@ -933,7 +952,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="5965"/>
@@ -944,7 +963,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1262"/>
@@ -955,7 +974,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3378"/>
@@ -966,7 +985,7 @@
     <n v="57"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2225"/>
@@ -977,7 +996,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="783"/>
@@ -988,7 +1007,7 @@
     <n v="52"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="6468"/>
@@ -999,7 +1018,7 @@
     <n v="31"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="9566"/>
@@ -1010,7 +1029,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1961"/>
@@ -1021,7 +1040,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6229"/>
@@ -1032,7 +1051,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1391"/>
@@ -1043,7 +1062,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1537"/>
@@ -1054,7 +1073,7 @@
     <n v="61"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1953"/>
@@ -1065,7 +1084,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="14421"/>
@@ -1076,7 +1095,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3181"/>
@@ -1087,7 +1106,7 @@
     <n v="48"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="5190"/>
@@ -1098,7 +1117,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2171"/>
@@ -1109,7 +1128,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1007"/>
@@ -1120,7 +1139,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1819"/>
@@ -1131,7 +1150,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2394"/>
@@ -1142,7 +1161,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="8133"/>
@@ -1153,7 +1172,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="730"/>
@@ -1164,7 +1183,7 @@
     <n v="51"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1164"/>
@@ -1175,7 +1194,7 @@
     <n v="41"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="5954"/>
@@ -1186,7 +1205,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1977"/>
@@ -1197,7 +1216,7 @@
     <n v="66"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1526"/>
@@ -1208,7 +1227,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3965"/>
@@ -1219,7 +1238,7 @@
     <n v="51"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4771"/>
@@ -1230,7 +1249,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="9436"/>
@@ -1241,7 +1260,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3832"/>
@@ -1252,7 +1271,7 @@
     <n v="44"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="5943"/>
@@ -1263,7 +1282,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1213"/>
@@ -1274,7 +1293,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1568"/>
@@ -1285,7 +1304,7 @@
     <n v="58"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1755"/>
@@ -1296,7 +1315,7 @@
     <n v="52"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2315"/>
@@ -1307,7 +1326,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1412"/>
@@ -1318,7 +1337,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1295"/>
@@ -1329,7 +1348,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="12612"/>
@@ -1340,7 +1359,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="2249"/>
@@ -1351,7 +1370,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1108"/>
@@ -1362,7 +1381,7 @@
     <n v="56"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="618"/>
@@ -1373,7 +1392,7 @@
     <n v="54"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1409"/>
@@ -1384,7 +1403,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="797"/>
@@ -1395,7 +1414,7 @@
     <n v="20"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="3617"/>
@@ -1406,7 +1425,7 @@
     <n v="54"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1318"/>
@@ -1417,7 +1436,7 @@
     <n v="58"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="15945"/>
@@ -1428,7 +1447,7 @@
     <n v="61"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2012"/>
@@ -1439,7 +1458,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="2622"/>
@@ -1450,7 +1469,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2337"/>
@@ -1461,7 +1480,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="7057"/>
@@ -1472,7 +1491,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1469"/>
@@ -1483,7 +1502,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2323"/>
@@ -1494,7 +1513,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="932"/>
@@ -1505,7 +1524,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1919"/>
@@ -1516,7 +1535,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2445"/>
@@ -1527,7 +1546,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="11938"/>
@@ -1538,7 +1557,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="6458"/>
@@ -1549,7 +1568,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="6078"/>
@@ -1560,7 +1579,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="7721"/>
@@ -1571,7 +1590,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1410"/>
@@ -1582,7 +1601,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1449"/>
@@ -1593,7 +1612,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="392"/>
@@ -1604,7 +1623,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="6260"/>
@@ -1615,7 +1634,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="7855"/>
@@ -1626,7 +1645,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="1680"/>
@@ -1637,7 +1656,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3578"/>
@@ -1648,7 +1667,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="7174"/>
@@ -1659,7 +1678,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="2132"/>
@@ -1670,7 +1689,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="4281"/>
@@ -1681,7 +1700,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="2366"/>
@@ -1692,7 +1711,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1835"/>
@@ -1703,7 +1722,7 @@
     <n v="41"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3868"/>
@@ -1714,7 +1733,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1768"/>
@@ -1725,7 +1744,7 @@
     <n v="63"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="781"/>
@@ -1736,7 +1755,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1924"/>
@@ -1747,7 +1766,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2121"/>
@@ -1758,7 +1777,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="701"/>
@@ -1769,7 +1788,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="639"/>
@@ -1780,7 +1799,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1860"/>
@@ -1791,7 +1810,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3499"/>
@@ -1802,7 +1821,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="8487"/>
@@ -1813,7 +1832,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6887"/>
@@ -1824,7 +1843,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2708"/>
@@ -1835,7 +1854,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1984"/>
@@ -1846,7 +1865,7 @@
     <n v="21"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="10144"/>
@@ -1857,7 +1876,7 @@
     <n v="38"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1240"/>
@@ -1868,7 +1887,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="8613"/>
@@ -1879,7 +1898,7 @@
     <n v="66"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="766"/>
@@ -1890,7 +1909,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2728"/>
@@ -1901,7 +1920,7 @@
     <n v="44"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1881"/>
@@ -1912,7 +1931,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Alto"/>
     <n v="709"/>
@@ -1923,7 +1942,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4795"/>
@@ -1934,7 +1953,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3416"/>
@@ -1945,7 +1964,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2462"/>
@@ -1956,7 +1975,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2288"/>
@@ -1967,7 +1986,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="3566"/>
@@ -1978,7 +1997,7 @@
     <n v="39"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="860"/>
@@ -1989,7 +2008,7 @@
     <n v="51"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="682"/>
@@ -2000,7 +2019,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="5371"/>
@@ -2011,7 +2030,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1582"/>
@@ -2022,7 +2041,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1346"/>
@@ -2033,7 +2052,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1924"/>
@@ -2044,7 +2063,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="5848"/>
@@ -2055,7 +2074,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="7758"/>
@@ -2066,7 +2085,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="6967"/>
@@ -2077,7 +2096,7 @@
     <n v="20"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1282"/>
@@ -2088,7 +2107,7 @@
     <n v="48"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="1288"/>
@@ -2099,7 +2118,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="339"/>
@@ -2110,7 +2129,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="3512"/>
@@ -2121,7 +2140,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1898"/>
@@ -2132,7 +2151,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="2872"/>
@@ -2143,7 +2162,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1055"/>
@@ -2154,7 +2173,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1262"/>
@@ -2165,7 +2184,7 @@
     <n v="70"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="7308"/>
@@ -2176,7 +2195,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="909"/>
@@ -2187,7 +2206,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2978"/>
@@ -2198,7 +2217,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1131"/>
@@ -2209,7 +2228,7 @@
     <n v="20"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1577"/>
@@ -2220,7 +2239,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3972"/>
@@ -2231,7 +2250,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1935"/>
@@ -2242,7 +2261,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="950"/>
@@ -2253,7 +2272,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="763"/>
@@ -2264,7 +2283,7 @@
     <n v="34"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2064"/>
@@ -2275,7 +2294,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1414"/>
@@ -2286,7 +2305,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3414"/>
@@ -2297,7 +2316,7 @@
     <n v="53"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="7485"/>
@@ -2308,7 +2327,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2577"/>
@@ -2319,7 +2338,7 @@
     <n v="52"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="338"/>
@@ -2330,7 +2349,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1963"/>
@@ -2341,7 +2360,7 @@
     <n v="65"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="571"/>
@@ -2352,7 +2371,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="9572"/>
@@ -2363,7 +2382,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4455"/>
@@ -2374,7 +2393,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1647"/>
@@ -2385,7 +2404,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="3777"/>
@@ -2396,7 +2415,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="884"/>
@@ -2407,7 +2426,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1360"/>
@@ -2418,7 +2437,7 @@
     <n v="74"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="5129"/>
@@ -2429,7 +2448,7 @@
     <n v="68"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1175"/>
@@ -2440,7 +2459,7 @@
     <n v="20"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="674"/>
@@ -2451,7 +2470,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3244"/>
@@ -2462,7 +2481,7 @@
     <n v="54"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="4591"/>
@@ -2473,7 +2492,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="3844"/>
@@ -2484,7 +2503,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3915"/>
@@ -2495,7 +2514,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2108"/>
@@ -2506,7 +2525,7 @@
     <n v="21"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="3031"/>
@@ -2517,7 +2536,7 @@
     <n v="34"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1501"/>
@@ -2528,7 +2547,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1382"/>
@@ -2539,7 +2558,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="951"/>
@@ -2550,7 +2569,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2760"/>
@@ -2561,7 +2580,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4297"/>
@@ -2572,7 +2591,7 @@
     <n v="52"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="936"/>
@@ -2583,7 +2602,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1168"/>
@@ -2594,7 +2613,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="5117"/>
@@ -2605,7 +2624,7 @@
     <n v="21"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="902"/>
@@ -2616,7 +2635,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1495"/>
@@ -2627,7 +2646,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="10623"/>
@@ -2638,7 +2657,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1935"/>
@@ -2649,7 +2668,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1424"/>
@@ -2660,7 +2679,7 @@
     <n v="21"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6568"/>
@@ -2671,7 +2690,7 @@
     <n v="55"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1413"/>
@@ -2682,7 +2701,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3074"/>
@@ -2693,7 +2712,7 @@
     <n v="45"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3835"/>
@@ -2704,7 +2723,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="5293"/>
@@ -2715,7 +2734,7 @@
     <n v="66"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1908"/>
@@ -2726,7 +2745,7 @@
     <n v="51"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3342"/>
@@ -2737,7 +2756,7 @@
     <n v="39"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="932"/>
@@ -2748,7 +2767,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3104"/>
@@ -2759,7 +2778,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="3913"/>
@@ -2770,7 +2789,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3021"/>
@@ -2781,7 +2800,7 @@
     <n v="64"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1364"/>
@@ -2792,7 +2811,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="625"/>
@@ -2803,7 +2822,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1200"/>
@@ -2814,7 +2833,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="707"/>
@@ -2825,7 +2844,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2978"/>
@@ -2836,7 +2855,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4657"/>
@@ -2847,7 +2866,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2613"/>
@@ -2858,7 +2877,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="10961"/>
@@ -2869,7 +2888,7 @@
     <n v="53"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="7865"/>
@@ -2880,7 +2899,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1478"/>
@@ -2891,7 +2910,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3149"/>
@@ -2902,7 +2921,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="4210"/>
@@ -2913,7 +2932,7 @@
     <n v="51"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2507"/>
@@ -2924,7 +2943,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="2141"/>
@@ -2935,7 +2954,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="866"/>
@@ -2946,7 +2965,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1544"/>
@@ -2957,7 +2976,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1823"/>
@@ -2968,7 +2987,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="14555"/>
@@ -2979,7 +2998,7 @@
     <n v="61"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="2767"/>
@@ -2990,7 +3009,7 @@
     <n v="35"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1291"/>
@@ -3001,7 +3020,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2522"/>
@@ -3012,7 +3031,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="915"/>
@@ -3023,7 +3042,7 @@
     <n v="51"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1595"/>
@@ -3034,7 +3053,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4605"/>
@@ -3045,7 +3064,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1185"/>
@@ -3056,7 +3075,7 @@
     <n v="35"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="3447"/>
@@ -3067,7 +3086,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1258"/>
@@ -3078,7 +3097,7 @@
     <n v="52"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="717"/>
@@ -3089,7 +3108,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1204"/>
@@ -3100,7 +3119,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1925"/>
@@ -3111,7 +3130,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="433"/>
@@ -3122,7 +3141,7 @@
     <n v="39"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="666"/>
@@ -3133,7 +3152,7 @@
     <n v="46"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="2251"/>
@@ -3144,7 +3163,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2150"/>
@@ -3155,7 +3174,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="4151"/>
@@ -3166,7 +3185,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2030"/>
@@ -3177,7 +3196,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="7418"/>
@@ -3188,7 +3207,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2684"/>
@@ -3199,7 +3218,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2149"/>
@@ -3210,7 +3229,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="3812"/>
@@ -3221,7 +3240,7 @@
     <n v="57"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1154"/>
@@ -3232,7 +3251,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1657"/>
@@ -3243,7 +3262,7 @@
     <n v="55"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1603"/>
@@ -3254,7 +3273,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="5302"/>
@@ -3265,7 +3284,7 @@
     <n v="57"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2748"/>
@@ -3276,7 +3295,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1231"/>
@@ -3287,7 +3306,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="802"/>
@@ -3298,7 +3317,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="6304"/>
@@ -3309,7 +3328,7 @@
     <n v="38"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1533"/>
@@ -3320,7 +3339,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="8978"/>
@@ -3331,7 +3350,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="999"/>
@@ -3342,7 +3361,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2662"/>
@@ -3353,7 +3372,7 @@
     <n v="37"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1402"/>
@@ -3364,7 +3383,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="12169"/>
@@ -3375,7 +3394,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3060"/>
@@ -3386,7 +3405,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="11998"/>
@@ -3397,7 +3416,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2697"/>
@@ -3408,7 +3427,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2404"/>
@@ -3419,7 +3438,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1262"/>
@@ -3430,7 +3449,7 @@
     <n v="32"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4611"/>
@@ -3441,7 +3460,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1901"/>
@@ -3452,7 +3471,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="3368"/>
@@ -3463,7 +3482,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1574"/>
@@ -3474,7 +3493,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1445"/>
@@ -3485,7 +3504,7 @@
     <n v="63"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1520"/>
@@ -3496,7 +3515,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="3878"/>
@@ -3507,7 +3526,7 @@
     <n v="35"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="10722"/>
@@ -3518,7 +3537,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4788"/>
@@ -3529,7 +3548,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="7582"/>
@@ -3540,7 +3559,7 @@
     <n v="49"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1092"/>
@@ -3551,7 +3570,7 @@
     <n v="48"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1024"/>
@@ -3562,7 +3581,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1076"/>
@@ -3573,7 +3592,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="9398"/>
@@ -3584,7 +3603,7 @@
     <n v="44"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6419"/>
@@ -3595,7 +3614,7 @@
     <n v="56"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="4796"/>
@@ -3606,7 +3625,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="7629"/>
@@ -3617,7 +3636,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="9960"/>
@@ -3628,7 +3647,7 @@
     <n v="20"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="4675"/>
@@ -3639,7 +3658,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1287"/>
@@ -3650,7 +3669,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2515"/>
@@ -3661,7 +3680,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="2745"/>
@@ -3672,7 +3691,7 @@
     <n v="54"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="672"/>
@@ -3683,7 +3702,7 @@
     <n v="42"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3804"/>
@@ -3694,7 +3713,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1344"/>
@@ -3705,7 +3724,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1038"/>
@@ -3716,7 +3735,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="10127"/>
@@ -3727,7 +3746,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1543"/>
@@ -3738,7 +3757,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="4811"/>
@@ -3749,7 +3768,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="727"/>
@@ -3760,7 +3779,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1237"/>
@@ -3771,7 +3790,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="276"/>
@@ -3782,7 +3801,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="5381"/>
@@ -3793,7 +3812,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="5511"/>
@@ -3804,7 +3823,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="3749"/>
@@ -3815,7 +3834,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="685"/>
@@ -3826,7 +3845,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1494"/>
@@ -3837,7 +3856,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2746"/>
@@ -3848,7 +3867,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="708"/>
@@ -3859,7 +3878,7 @@
     <n v="48"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="4351"/>
@@ -3870,7 +3889,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="701"/>
@@ -3881,7 +3900,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3643"/>
@@ -3892,7 +3911,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4249"/>
@@ -3903,7 +3922,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1938"/>
@@ -3914,7 +3933,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2910"/>
@@ -3925,7 +3944,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="2659"/>
@@ -3936,7 +3955,7 @@
     <n v="36"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1028"/>
@@ -3947,7 +3966,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3398"/>
@@ -3958,7 +3977,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="5801"/>
@@ -3969,7 +3988,7 @@
     <n v="34"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1525"/>
@@ -3980,7 +3999,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="4473"/>
@@ -3991,7 +4010,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1068"/>
@@ -4002,7 +4021,7 @@
     <n v="75"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6615"/>
@@ -4013,7 +4032,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1864"/>
@@ -4024,7 +4043,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="7408"/>
@@ -4035,7 +4054,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="11590"/>
@@ -4046,7 +4065,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4110"/>
@@ -4057,7 +4076,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3384"/>
@@ -4068,7 +4087,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2101"/>
@@ -4079,7 +4098,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1275"/>
@@ -4090,7 +4109,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4169"/>
@@ -4101,7 +4120,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1521"/>
@@ -4112,7 +4131,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="5743"/>
@@ -4123,7 +4142,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3599"/>
@@ -4134,7 +4153,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="3213"/>
@@ -4145,7 +4164,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4439"/>
@@ -4156,7 +4175,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="3949"/>
@@ -4167,7 +4186,7 @@
     <n v="43"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1459"/>
@@ -4178,7 +4197,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="882"/>
@@ -4189,7 +4208,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="3758"/>
@@ -4200,7 +4219,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1743"/>
@@ -4211,7 +4230,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1136"/>
@@ -4222,7 +4241,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1236"/>
@@ -4233,7 +4252,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="959"/>
@@ -4244,7 +4263,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3229"/>
@@ -4255,7 +4274,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6199"/>
@@ -4266,7 +4285,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="727"/>
@@ -4277,7 +4296,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1246"/>
@@ -4288,7 +4307,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2331"/>
@@ -4299,7 +4318,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4463"/>
@@ -4310,7 +4329,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="776"/>
@@ -4321,7 +4340,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2406"/>
@@ -4332,7 +4351,7 @@
     <n v="61"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1239"/>
@@ -4343,7 +4362,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="3399"/>
@@ -4354,7 +4373,7 @@
     <n v="36"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="2247"/>
@@ -4365,7 +4384,7 @@
     <n v="21"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1766"/>
@@ -4376,7 +4395,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2473"/>
@@ -4387,7 +4406,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1542"/>
@@ -4398,7 +4417,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3850"/>
@@ -4409,7 +4428,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3650"/>
@@ -4420,7 +4439,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3446"/>
@@ -4431,7 +4450,7 @@
     <n v="40"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3001"/>
@@ -4442,7 +4461,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3079"/>
@@ -4453,7 +4472,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="6070"/>
@@ -4464,7 +4483,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2146"/>
@@ -4475,7 +4494,7 @@
     <n v="63"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="13756"/>
@@ -4486,7 +4505,7 @@
     <n v="60"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="14782"/>
@@ -4497,7 +4516,7 @@
     <n v="37"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="7685"/>
@@ -4508,7 +4527,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2320"/>
@@ -4519,7 +4538,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="846"/>
@@ -4530,7 +4549,7 @@
     <n v="57"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="14318"/>
@@ -4541,7 +4560,7 @@
     <n v="52"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="362"/>
@@ -4552,7 +4571,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="2212"/>
@@ -4563,7 +4582,7 @@
     <n v="38"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="12976"/>
@@ -4574,7 +4593,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1283"/>
@@ -4585,7 +4604,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1330"/>
@@ -4596,7 +4615,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="4272"/>
@@ -4607,7 +4626,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2238"/>
@@ -4618,7 +4637,7 @@
     <n v="21"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1126"/>
@@ -4629,7 +4648,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="7374"/>
@@ -4640,7 +4659,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="2326"/>
@@ -4651,7 +4670,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1449"/>
@@ -4662,7 +4681,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1820"/>
@@ -4673,7 +4692,7 @@
     <n v="19"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="983"/>
@@ -4684,7 +4703,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3249"/>
@@ -4695,7 +4714,7 @@
     <n v="31"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1957"/>
@@ -4706,7 +4725,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2406"/>
@@ -4717,7 +4736,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="11760"/>
@@ -4728,7 +4747,7 @@
     <n v="55"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2578"/>
@@ -4739,7 +4758,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2348"/>
@@ -4750,7 +4769,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1223"/>
@@ -4761,7 +4780,7 @@
     <n v="43"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1516"/>
@@ -4772,7 +4791,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1473"/>
@@ -4783,7 +4802,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1887"/>
@@ -4794,7 +4813,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="8648"/>
@@ -4805,7 +4824,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="802"/>
@@ -4816,7 +4835,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2899"/>
@@ -4827,7 +4846,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2039"/>
@@ -4838,7 +4857,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2197"/>
@@ -4849,7 +4868,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1053"/>
@@ -4860,7 +4879,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="3235"/>
@@ -4871,7 +4890,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Alto"/>
     <n v="939"/>
@@ -4882,7 +4901,7 @@
     <n v="20"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1967"/>
@@ -4893,7 +4912,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="7253"/>
@@ -4904,7 +4923,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2292"/>
@@ -4915,7 +4934,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1597"/>
@@ -4926,7 +4945,7 @@
     <n v="35"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1381"/>
@@ -4937,7 +4956,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="5842"/>
@@ -4948,7 +4967,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2579"/>
@@ -4959,7 +4978,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="8471"/>
@@ -4970,7 +4989,7 @@
     <n v="31"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2782"/>
@@ -4981,7 +5000,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1042"/>
@@ -4992,7 +5011,7 @@
     <n v="20"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="3186"/>
@@ -5003,7 +5022,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2028"/>
@@ -5014,7 +5033,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="958"/>
@@ -5025,7 +5044,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1591"/>
@@ -5036,7 +5055,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2762"/>
@@ -5047,7 +5066,7 @@
     <n v="21"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2779"/>
@@ -5058,7 +5077,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2743"/>
@@ -5069,7 +5088,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1149"/>
@@ -5080,7 +5099,7 @@
     <n v="20"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1313"/>
@@ -5091,7 +5110,7 @@
     <n v="55"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1190"/>
@@ -5102,7 +5121,7 @@
     <n v="74"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3448"/>
@@ -5113,7 +5132,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="11328"/>
@@ -5124,7 +5143,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1872"/>
@@ -5135,7 +5154,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2058"/>
@@ -5146,7 +5165,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2136"/>
@@ -5157,7 +5176,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1484"/>
@@ -5168,7 +5187,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="660"/>
@@ -5179,7 +5198,7 @@
     <n v="37"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1287"/>
@@ -5190,7 +5209,7 @@
     <n v="65"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3394"/>
@@ -5201,7 +5220,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="609"/>
@@ -5212,7 +5231,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1884"/>
@@ -5223,7 +5242,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1620"/>
@@ -5234,7 +5253,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2629"/>
@@ -5245,7 +5264,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="719"/>
@@ -5256,7 +5275,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="5096"/>
@@ -5267,7 +5286,7 @@
     <n v="41"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1244"/>
@@ -5278,7 +5297,7 @@
     <n v="34"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1842"/>
@@ -5289,7 +5308,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2576"/>
@@ -5300,7 +5319,7 @@
     <n v="55"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1424"/>
@@ -5311,7 +5330,7 @@
     <n v="61"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1512"/>
@@ -5322,7 +5341,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="11054"/>
@@ -5333,7 +5352,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="518"/>
@@ -5344,7 +5363,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2759"/>
@@ -5355,7 +5374,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2670"/>
@@ -5366,7 +5385,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4817"/>
@@ -5377,7 +5396,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2679"/>
@@ -5388,7 +5407,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3905"/>
@@ -5399,7 +5418,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3386"/>
@@ -5410,7 +5429,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="343"/>
@@ -5421,7 +5440,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4594"/>
@@ -5432,7 +5451,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3620"/>
@@ -5443,7 +5462,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1721"/>
@@ -5454,7 +5473,7 @@
     <n v="34"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3017"/>
@@ -5465,7 +5484,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="754"/>
@@ -5476,7 +5495,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1950"/>
@@ -5487,7 +5506,7 @@
     <n v="63"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2924"/>
@@ -5498,7 +5517,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1659"/>
@@ -5509,7 +5528,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="7238"/>
@@ -5520,7 +5539,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2764"/>
@@ -5531,7 +5550,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4679"/>
@@ -5542,7 +5561,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="3092"/>
@@ -5553,7 +5572,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="448"/>
@@ -5564,7 +5583,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="654"/>
@@ -5575,7 +5594,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1238"/>
@@ -5586,7 +5605,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1245"/>
@@ -5597,7 +5616,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3114"/>
@@ -5608,7 +5627,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2569"/>
@@ -5619,7 +5638,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="5152"/>
@@ -5630,7 +5649,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1037"/>
@@ -5641,7 +5660,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1478"/>
@@ -5652,7 +5671,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3573"/>
@@ -5663,7 +5682,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1201"/>
@@ -5674,7 +5693,7 @@
     <n v="57"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="3622"/>
@@ -5685,7 +5704,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="960"/>
@@ -5696,7 +5715,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1163"/>
@@ -5707,7 +5726,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1209"/>
@@ -5718,7 +5737,7 @@
     <n v="52"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3077"/>
@@ -5729,7 +5748,7 @@
     <n v="62"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3757"/>
@@ -5740,7 +5759,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1418"/>
@@ -5751,7 +5770,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3518"/>
@@ -5762,7 +5781,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1934"/>
@@ -5773,7 +5792,7 @@
     <n v="42"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="8318"/>
@@ -5784,7 +5803,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1237"/>
@@ -5795,7 +5814,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="368"/>
@@ -5806,7 +5825,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2122"/>
@@ -5817,7 +5836,7 @@
     <n v="20"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="2996"/>
@@ -5828,7 +5847,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="9034"/>
@@ -5839,7 +5858,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1585"/>
@@ -5850,7 +5869,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1301"/>
@@ -5861,7 +5880,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Alto"/>
     <n v="1323"/>
@@ -5872,7 +5891,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3123"/>
@@ -5883,7 +5902,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="5493"/>
@@ -5894,7 +5913,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Alto"/>
     <n v="1126"/>
@@ -5905,7 +5924,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1216"/>
@@ -5916,7 +5935,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1207"/>
@@ -5927,7 +5946,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1309"/>
@@ -5938,7 +5957,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Alto"/>
     <n v="2360"/>
@@ -5949,7 +5968,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="6850"/>
@@ -5960,7 +5979,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1413"/>
@@ -5971,7 +5990,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="8588"/>
@@ -5982,7 +6001,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="759"/>
@@ -5993,7 +6012,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4686"/>
@@ -6004,7 +6023,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="2687"/>
@@ -6015,7 +6034,7 @@
     <n v="20"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="585"/>
@@ -6026,7 +6045,7 @@
     <n v="54"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2255"/>
@@ -6037,7 +6056,7 @@
     <n v="37"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="609"/>
@@ -6048,7 +6067,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1361"/>
@@ -6059,7 +6078,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="7127"/>
@@ -6070,7 +6089,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="1203"/>
@@ -6081,7 +6100,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="700"/>
@@ -6092,7 +6111,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="5507"/>
@@ -6103,7 +6122,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3190"/>
@@ -6114,7 +6133,7 @@
     <n v="53"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="7119"/>
@@ -6125,7 +6144,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="3488"/>
@@ -6136,7 +6155,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1113"/>
@@ -6147,7 +6166,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="7966"/>
@@ -6158,7 +6177,7 @@
     <n v="31"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1532"/>
@@ -6169,7 +6188,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1503"/>
@@ -6180,7 +6199,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2302"/>
@@ -6191,7 +6210,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="662"/>
@@ -6202,7 +6221,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2273"/>
@@ -6213,7 +6232,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="2631"/>
@@ -6224,7 +6243,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1503"/>
@@ -6235,7 +6254,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1311"/>
@@ -6246,7 +6265,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3105"/>
@@ -6257,7 +6276,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="2319"/>
@@ -6268,7 +6287,7 @@
     <n v="75"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1374"/>
@@ -6279,7 +6298,7 @@
     <n v="37"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3612"/>
@@ -6290,7 +6309,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="7763"/>
@@ -6301,7 +6320,7 @@
     <n v="45"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="3049"/>
@@ -6312,7 +6331,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1534"/>
@@ -6323,7 +6342,7 @@
     <n v="60"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2032"/>
@@ -6334,7 +6353,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="6350"/>
@@ -6345,7 +6364,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="2864"/>
@@ -6356,7 +6375,7 @@
     <n v="61"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1255"/>
@@ -6367,7 +6386,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1333"/>
@@ -6378,7 +6397,7 @@
     <n v="37"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2022"/>
@@ -6389,7 +6408,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1552"/>
@@ -6400,7 +6419,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="626"/>
@@ -6411,7 +6430,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="8858"/>
@@ -6422,7 +6441,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="996"/>
@@ -6433,7 +6452,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1750"/>
@@ -6444,7 +6463,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6999"/>
@@ -6455,7 +6474,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1995"/>
@@ -6466,7 +6485,7 @@
     <n v="67"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1199"/>
@@ -6477,7 +6496,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1331"/>
@@ -6488,7 +6507,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="2278"/>
@@ -6499,7 +6518,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="5003"/>
@@ -6510,7 +6529,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3552"/>
@@ -6521,7 +6540,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1928"/>
@@ -6532,7 +6551,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="2964"/>
@@ -6543,7 +6562,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1546"/>
@@ -6554,7 +6573,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="683"/>
@@ -6565,7 +6584,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="12389"/>
@@ -6576,7 +6595,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="4712"/>
@@ -6587,7 +6606,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1553"/>
@@ -6598,7 +6617,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1372"/>
@@ -6609,7 +6628,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2578"/>
@@ -6620,7 +6639,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="3979"/>
@@ -6631,7 +6650,7 @@
     <n v="31"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6758"/>
@@ -6642,7 +6661,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3234"/>
@@ -6653,7 +6672,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="5954"/>
@@ -6664,7 +6683,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="5433"/>
@@ -6675,7 +6694,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="806"/>
@@ -6686,7 +6705,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1082"/>
@@ -6697,7 +6716,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2788"/>
@@ -6708,7 +6727,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2930"/>
@@ -6719,7 +6738,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1927"/>
@@ -6730,7 +6749,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2820"/>
@@ -6741,7 +6760,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="937"/>
@@ -6752,7 +6771,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1056"/>
@@ -6763,7 +6782,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3124"/>
@@ -6774,7 +6793,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1388"/>
@@ -6785,7 +6804,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2384"/>
@@ -6796,7 +6815,7 @@
     <n v="52"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2133"/>
@@ -6807,7 +6826,7 @@
     <n v="20"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2039"/>
@@ -6818,7 +6837,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2799"/>
@@ -6829,7 +6848,7 @@
     <n v="21"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1289"/>
@@ -6840,7 +6859,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1217"/>
@@ -6851,7 +6870,7 @@
     <n v="60"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2246"/>
@@ -6862,7 +6881,7 @@
     <n v="58"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="385"/>
@@ -6873,7 +6892,7 @@
     <n v="42"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1965"/>
@@ -6884,7 +6903,7 @@
     <n v="36"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1572"/>
@@ -6895,7 +6914,7 @@
     <n v="20"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2718"/>
@@ -6906,7 +6925,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1358"/>
@@ -6917,7 +6936,7 @@
     <n v="32"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="931"/>
@@ -6928,7 +6947,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1442"/>
@@ -6939,7 +6958,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4241"/>
@@ -6950,7 +6969,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2775"/>
@@ -6961,7 +6980,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3863"/>
@@ -6972,7 +6991,7 @@
     <n v="45"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2329"/>
@@ -6983,7 +7002,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="918"/>
@@ -6994,7 +7013,7 @@
     <n v="34"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1837"/>
@@ -7005,7 +7024,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3349"/>
@@ -7016,7 +7035,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1275"/>
@@ -7027,7 +7046,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="2828"/>
@@ -7038,7 +7057,7 @@
     <n v="74"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4526"/>
@@ -7049,7 +7068,7 @@
     <n v="50"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="2671"/>
@@ -7060,7 +7079,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2051"/>
@@ -7071,7 +7090,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1300"/>
@@ -7082,7 +7101,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="741"/>
@@ -7093,7 +7112,7 @@
     <n v="48"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Alto"/>
     <n v="1240"/>
@@ -7104,7 +7123,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="3357"/>
@@ -7115,7 +7134,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3632"/>
@@ -7126,7 +7145,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1808"/>
@@ -7137,7 +7156,7 @@
     <n v="48"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="12204"/>
@@ -7148,7 +7167,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="9157"/>
@@ -7159,7 +7178,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3676"/>
@@ -7170,7 +7189,7 @@
     <n v="21"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="3441"/>
@@ -7181,7 +7200,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="640"/>
@@ -7192,7 +7211,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3652"/>
@@ -7203,7 +7222,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1530"/>
@@ -7214,7 +7233,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3914"/>
@@ -7225,7 +7244,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1858"/>
@@ -7236,7 +7255,7 @@
     <n v="65"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2600"/>
@@ -7247,7 +7266,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1979"/>
@@ -7258,7 +7277,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="2116"/>
@@ -7269,7 +7288,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1437"/>
@@ -7280,7 +7299,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="4042"/>
@@ -7291,7 +7310,7 @@
     <n v="64"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3832"/>
@@ -7302,7 +7321,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3660"/>
@@ -7313,7 +7332,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1553"/>
@@ -7324,7 +7343,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1444"/>
@@ -7335,7 +7354,7 @@
     <n v="19"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1980"/>
@@ -7346,7 +7365,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1355"/>
@@ -7357,7 +7376,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1393"/>
@@ -7368,7 +7387,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1376"/>
@@ -7379,7 +7398,7 @@
     <n v="21"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="15653"/>
@@ -7390,7 +7409,7 @@
     <n v="34"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1493"/>
@@ -7401,7 +7420,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4370"/>
@@ -7412,7 +7431,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="750"/>
@@ -7423,7 +7442,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1308"/>
@@ -7434,7 +7453,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="4623"/>
@@ -7445,7 +7464,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1851"/>
@@ -7456,7 +7475,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1880"/>
@@ -7467,7 +7486,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="7980"/>
@@ -7478,7 +7497,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4583"/>
@@ -7489,7 +7508,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1386"/>
@@ -7500,7 +7519,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="947"/>
@@ -7511,7 +7530,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="684"/>
@@ -7522,7 +7541,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="7476"/>
@@ -7533,7 +7552,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1922"/>
@@ -7544,7 +7563,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2303"/>
@@ -7555,7 +7574,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="8086"/>
@@ -7566,7 +7585,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2346"/>
@@ -7577,7 +7596,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3973"/>
@@ -7588,7 +7607,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="888"/>
@@ -7599,7 +7618,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="10222"/>
@@ -7610,7 +7629,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4221"/>
@@ -7621,7 +7640,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="6361"/>
@@ -7632,7 +7651,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1297"/>
@@ -7643,7 +7662,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="900"/>
@@ -7654,7 +7673,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2241"/>
@@ -7665,7 +7684,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1050"/>
@@ -7676,7 +7695,7 @@
     <n v="50"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1047"/>
@@ -7687,7 +7706,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="6314"/>
@@ -7698,7 +7717,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="3496"/>
@@ -7709,7 +7728,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3609"/>
@@ -7720,7 +7739,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4843"/>
@@ -7731,7 +7750,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="3017"/>
@@ -7742,7 +7761,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="4139"/>
@@ -7753,7 +7772,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="5742"/>
@@ -7764,7 +7783,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="10366"/>
@@ -7775,7 +7794,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2080"/>
@@ -7786,7 +7805,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2580"/>
@@ -7797,7 +7816,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4530"/>
@@ -7808,7 +7827,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="5150"/>
@@ -7819,7 +7838,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="5595"/>
@@ -7830,7 +7849,7 @@
     <n v="64"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2384"/>
@@ -7841,7 +7860,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1453"/>
@@ -7852,7 +7871,7 @@
     <n v="56"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1538"/>
@@ -7863,7 +7882,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2279"/>
@@ -7874,7 +7893,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1478"/>
@@ -7885,7 +7904,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="5103"/>
@@ -7896,7 +7915,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="9857"/>
@@ -7907,7 +7926,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="6527"/>
@@ -7918,7 +7937,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1347"/>
@@ -7929,7 +7948,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="2862"/>
@@ -7940,7 +7959,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="2753"/>
@@ -7951,7 +7970,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="3651"/>
@@ -7962,7 +7981,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="975"/>
@@ -7973,7 +7992,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="2631"/>
@@ -7984,7 +8003,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="2896"/>
@@ -7995,7 +8014,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="4716"/>
@@ -8006,7 +8025,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2284"/>
@@ -8017,7 +8036,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1236"/>
@@ -8028,7 +8047,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1103"/>
@@ -8039,7 +8058,7 @@
     <n v="38"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="926"/>
@@ -8050,7 +8069,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1800"/>
@@ -8061,7 +8080,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1905"/>
@@ -8072,7 +8091,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1123"/>
@@ -8083,7 +8102,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6331"/>
@@ -8094,7 +8113,7 @@
     <n v="47"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Alto"/>
     <n v="1377"/>
@@ -8105,7 +8124,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="2503"/>
@@ -8116,7 +8135,7 @@
     <n v="32"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2528"/>
@@ -8127,7 +8146,7 @@
     <n v="35"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="5324"/>
@@ -8138,7 +8157,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="6560"/>
@@ -8149,7 +8168,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2969"/>
@@ -8160,7 +8179,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1206"/>
@@ -8171,7 +8190,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2118"/>
@@ -8182,7 +8201,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="629"/>
@@ -8193,7 +8212,7 @@
     <n v="35"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1198"/>
@@ -8204,7 +8223,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2476"/>
@@ -8215,7 +8234,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1138"/>
@@ -8226,7 +8245,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="14027"/>
@@ -8237,7 +8256,7 @@
     <n v="63"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="7596"/>
@@ -8248,7 +8267,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3077"/>
@@ -8259,7 +8278,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1505"/>
@@ -8270,7 +8289,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="3148"/>
@@ -8281,7 +8300,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="6148"/>
@@ -8292,7 +8311,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1337"/>
@@ -8303,7 +8322,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="433"/>
@@ -8314,7 +8333,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1228"/>
@@ -8325,7 +8344,7 @@
     <n v="66"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="790"/>
@@ -8336,7 +8355,7 @@
     <n v="21"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2570"/>
@@ -8347,7 +8366,7 @@
     <n v="41"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="250"/>
@@ -8358,7 +8377,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1316"/>
@@ -8369,7 +8388,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1882"/>
@@ -8380,7 +8399,7 @@
     <n v="59"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="6416"/>
@@ -8391,7 +8410,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Alto"/>
     <n v="1275"/>
@@ -8402,7 +8421,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="6403"/>
@@ -8413,7 +8432,7 @@
     <n v="21"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1987"/>
@@ -8424,7 +8443,7 @@
     <n v="44"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="760"/>
@@ -8435,7 +8454,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2603"/>
@@ -8446,7 +8465,7 @@
     <n v="37"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3380"/>
@@ -8457,7 +8476,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="3990"/>
@@ -8468,7 +8487,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="11560"/>
@@ -8479,7 +8498,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="4380"/>
@@ -8490,7 +8509,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="6761"/>
@@ -8501,7 +8520,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="4280"/>
@@ -8512,7 +8531,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="2325"/>
@@ -8523,7 +8542,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1048"/>
@@ -8534,7 +8553,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3160"/>
@@ -8545,7 +8564,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="2483"/>
@@ -8556,7 +8575,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="14179"/>
@@ -8567,7 +8586,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1797"/>
@@ -8578,7 +8597,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2511"/>
@@ -8589,7 +8608,7 @@
     <n v="37"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1274"/>
@@ -8600,7 +8619,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="5248"/>
@@ -8611,7 +8630,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3029"/>
@@ -8622,7 +8641,7 @@
     <n v="49"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="428"/>
@@ -8633,7 +8652,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="976"/>
@@ -8644,7 +8663,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="841"/>
@@ -8655,7 +8674,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="5771"/>
@@ -8666,7 +8685,7 @@
     <n v="55"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1555"/>
@@ -8677,7 +8696,7 @@
     <n v="32"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1285"/>
@@ -8688,7 +8707,7 @@
     <n v="74"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1299"/>
@@ -8699,7 +8718,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1271"/>
@@ -8710,7 +8729,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1393"/>
@@ -8721,7 +8740,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="691"/>
@@ -8732,7 +8751,7 @@
     <n v="59"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="5045"/>
@@ -8743,7 +8762,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2124"/>
@@ -8754,7 +8773,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2214"/>
@@ -8765,7 +8784,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="12680"/>
@@ -8776,7 +8795,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="2463"/>
@@ -8787,7 +8806,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1155"/>
@@ -8798,7 +8817,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3108"/>
@@ -8809,7 +8828,7 @@
     <n v="31"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2901"/>
@@ -8820,7 +8839,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3617"/>
@@ -8831,7 +8850,7 @@
     <n v="63"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1655"/>
@@ -8842,7 +8861,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="2812"/>
@@ -8853,7 +8872,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="8065"/>
@@ -8864,7 +8883,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3275"/>
@@ -8875,7 +8894,7 @@
     <n v="52"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="2223"/>
@@ -8886,7 +8905,7 @@
     <n v="66"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Alto"/>
     <s v="Alto"/>
     <n v="1480"/>
@@ -8897,7 +8916,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1371"/>
@@ -8908,7 +8927,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3535"/>
@@ -8919,7 +8938,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3509"/>
@@ -8930,7 +8949,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="5711"/>
@@ -8941,7 +8960,7 @@
     <n v="67"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3872"/>
@@ -8952,7 +8971,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4933"/>
@@ -8963,7 +8982,7 @@
     <n v="60"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1940"/>
@@ -8974,7 +8993,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1410"/>
@@ -8985,7 +9004,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="836"/>
@@ -8996,7 +9015,7 @@
     <n v="60"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="6468"/>
@@ -9007,7 +9026,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1941"/>
@@ -9018,7 +9037,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2675"/>
@@ -9029,7 +9048,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2751"/>
@@ -9040,7 +9059,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="6224"/>
@@ -9051,7 +9070,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="5998"/>
@@ -9062,7 +9081,7 @@
     <n v="39"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1188"/>
@@ -9073,7 +9092,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="6313"/>
@@ -9084,7 +9103,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1221"/>
@@ -9095,7 +9114,7 @@
     <n v="51"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="2892"/>
@@ -9106,7 +9125,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="3062"/>
@@ -9117,7 +9136,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="2301"/>
@@ -9128,7 +9147,7 @@
     <n v="51"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="7511"/>
@@ -9139,7 +9158,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1258"/>
@@ -9150,7 +9169,7 @@
     <n v="54"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="717"/>
@@ -9161,7 +9180,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1549"/>
@@ -9172,7 +9191,7 @@
     <n v="54"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1597"/>
@@ -9183,7 +9202,7 @@
     <n v="48"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1795"/>
@@ -9194,7 +9213,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4272"/>
@@ -9205,7 +9224,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="976"/>
@@ -9216,7 +9235,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="7472"/>
@@ -9227,7 +9246,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="9271"/>
@@ -9238,7 +9257,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="590"/>
@@ -9249,7 +9268,7 @@
     <n v="65"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="930"/>
@@ -9260,7 +9279,7 @@
     <n v="55"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="9283"/>
@@ -9271,7 +9290,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1778"/>
@@ -9282,7 +9301,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="907"/>
@@ -9293,7 +9312,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="484"/>
@@ -9304,7 +9323,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="9629"/>
@@ -9315,7 +9334,7 @@
     <n v="54"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3051"/>
@@ -9326,7 +9345,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3931"/>
@@ -9337,7 +9356,7 @@
     <n v="54"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="7432"/>
@@ -9348,7 +9367,7 @@
     <n v="62"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1338"/>
@@ -9359,7 +9378,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1554"/>
@@ -9370,7 +9389,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="15857"/>
@@ -9381,7 +9400,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1345"/>
@@ -9392,7 +9411,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1101"/>
@@ -9403,7 +9422,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="3016"/>
@@ -9414,7 +9433,7 @@
     <n v="41"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2712"/>
@@ -9425,7 +9444,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="731"/>
@@ -9436,7 +9455,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3780"/>
@@ -9447,7 +9466,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1602"/>
@@ -9458,7 +9477,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3966"/>
@@ -9469,7 +9488,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4165"/>
@@ -9480,7 +9499,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="8335"/>
@@ -9491,7 +9510,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="6681"/>
@@ -9502,7 +9521,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2375"/>
@@ -9513,7 +9532,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1216"/>
@@ -9524,7 +9543,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="11816"/>
@@ -9535,7 +9554,7 @@
     <n v="42"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="5084"/>
@@ -9546,7 +9565,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="2327"/>
@@ -9557,7 +9576,7 @@
     <n v="48"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1082"/>
@@ -9568,7 +9587,7 @@
     <n v="21"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="886"/>
@@ -9579,7 +9598,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="601"/>
@@ -9590,7 +9609,7 @@
     <n v="63"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2957"/>
@@ -9601,7 +9620,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2611"/>
@@ -9612,7 +9631,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="5179"/>
@@ -9623,7 +9642,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2993"/>
@@ -9634,7 +9653,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1943"/>
@@ -9645,7 +9664,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1559"/>
@@ -9656,7 +9675,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3422"/>
@@ -9667,7 +9686,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="3976"/>
@@ -9678,7 +9697,7 @@
     <n v="68"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="6761"/>
@@ -9689,7 +9708,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1249"/>
@@ -9700,7 +9719,7 @@
     <n v="59"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1364"/>
@@ -9711,7 +9730,7 @@
     <n v="57"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="709"/>
@@ -9722,7 +9741,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2235"/>
@@ -9733,7 +9752,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="4042"/>
@@ -9744,7 +9763,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1471"/>
@@ -9755,7 +9774,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1442"/>
@@ -9766,7 +9785,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="10875"/>
@@ -9777,7 +9796,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1474"/>
@@ -9788,7 +9807,7 @@
     <n v="40"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="894"/>
@@ -9799,7 +9818,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3343"/>
@@ -9810,7 +9829,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3959"/>
@@ -9821,7 +9840,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="3577"/>
@@ -9832,7 +9851,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="5804"/>
@@ -9843,7 +9862,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2169"/>
@@ -9854,7 +9873,7 @@
     <n v="35"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2439"/>
@@ -9865,7 +9884,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="4526"/>
@@ -9876,7 +9895,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2210"/>
@@ -9887,7 +9906,7 @@
     <n v="20"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2221"/>
@@ -9898,7 +9917,7 @@
     <n v="27"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2389"/>
@@ -9909,7 +9928,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3331"/>
@@ -9920,7 +9939,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="7409"/>
@@ -9931,7 +9950,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="652"/>
@@ -9942,7 +9961,7 @@
     <n v="40"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="7678"/>
@@ -9953,7 +9972,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="1343"/>
@@ -9964,7 +9983,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="1382"/>
@@ -9975,7 +9994,7 @@
     <n v="24"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="874"/>
@@ -9986,7 +10005,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3590"/>
@@ -9997,7 +10016,7 @@
     <n v="40"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="1322"/>
@@ -10008,7 +10027,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1940"/>
@@ -10019,7 +10038,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3595"/>
@@ -10030,7 +10049,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1422"/>
@@ -10041,7 +10060,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="6742"/>
@@ -10052,7 +10071,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="7814"/>
@@ -10063,7 +10082,7 @@
     <n v="48"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="9277"/>
@@ -10074,7 +10093,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2181"/>
@@ -10085,7 +10104,7 @@
     <n v="65"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1098"/>
@@ -10096,7 +10115,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4057"/>
@@ -10107,7 +10126,7 @@
     <n v="53"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="795"/>
@@ -10118,7 +10137,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2825"/>
@@ -10129,7 +10148,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="15672"/>
@@ -10140,7 +10159,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="6614"/>
@@ -10151,7 +10170,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="7824"/>
@@ -10162,7 +10181,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2442"/>
@@ -10173,7 +10192,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1829"/>
@@ -10184,7 +10203,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2171"/>
@@ -10195,7 +10214,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="5800"/>
@@ -10206,7 +10225,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1169"/>
@@ -10217,7 +10236,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="8947"/>
@@ -10228,7 +10247,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2606"/>
@@ -10239,7 +10258,7 @@
     <n v="35"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="1592"/>
@@ -10250,7 +10269,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2186"/>
@@ -10261,7 +10280,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4153"/>
@@ -10272,7 +10291,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2625"/>
@@ -10283,7 +10302,7 @@
     <n v="44"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3485"/>
@@ -10294,7 +10313,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="10477"/>
@@ -10305,7 +10324,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1386"/>
@@ -10316,7 +10335,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1278"/>
@@ -10327,7 +10346,7 @@
     <n v="20"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1107"/>
@@ -10338,7 +10357,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="3763"/>
@@ -10349,7 +10368,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="3711"/>
@@ -10360,7 +10379,7 @@
     <n v="46"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3594"/>
@@ -10371,7 +10390,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="3195"/>
@@ -10382,7 +10401,7 @@
     <n v="34"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4454"/>
@@ -10393,7 +10412,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="4736"/>
@@ -10404,7 +10423,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2991"/>
@@ -10415,7 +10434,7 @@
     <n v="28"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2142"/>
@@ -10426,7 +10445,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3161"/>
@@ -10437,7 +10456,7 @@
     <n v="32"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="18424"/>
@@ -10448,7 +10467,7 @@
     <n v="32"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="2848"/>
@@ -10459,7 +10478,7 @@
     <n v="68"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="14896"/>
@@ -10470,7 +10489,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Pouco"/>
     <n v="2359"/>
@@ -10481,7 +10500,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3345"/>
@@ -10492,7 +10511,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1817"/>
@@ -10503,7 +10522,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="12749"/>
@@ -10514,7 +10533,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1366"/>
@@ -10525,7 +10544,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2002"/>
@@ -10536,7 +10555,7 @@
     <n v="55"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6872"/>
@@ -10547,7 +10566,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="697"/>
@@ -10558,7 +10577,7 @@
     <n v="21"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1049"/>
@@ -10569,7 +10588,7 @@
     <n v="39"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="10297"/>
@@ -10580,7 +10599,7 @@
     <n v="58"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="1867"/>
@@ -10591,7 +10610,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1344"/>
@@ -10602,7 +10621,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1747"/>
@@ -10613,7 +10632,7 @@
     <n v="22"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1670"/>
@@ -10624,7 +10643,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1224"/>
@@ -10635,7 +10654,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="522"/>
@@ -10646,7 +10665,7 @@
     <n v="23"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1498"/>
@@ -10657,7 +10676,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1919"/>
@@ -10668,7 +10687,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="745"/>
@@ -10679,7 +10698,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2063"/>
@@ -10690,7 +10709,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="6288"/>
@@ -10701,7 +10720,7 @@
     <n v="46"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="6842"/>
@@ -10712,7 +10731,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3527"/>
@@ -10723,7 +10742,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1546"/>
@@ -10734,7 +10753,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="929"/>
@@ -10745,7 +10764,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1455"/>
@@ -10756,7 +10775,7 @@
     <n v="46"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1845"/>
@@ -10767,7 +10786,7 @@
     <n v="30"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="8358"/>
@@ -10778,7 +10797,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="3349"/>
@@ -10789,7 +10808,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2859"/>
@@ -10800,7 +10819,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1533"/>
@@ -10811,7 +10830,7 @@
     <n v="31"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="3621"/>
@@ -10822,7 +10841,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="3590"/>
@@ -10833,7 +10852,7 @@
     <n v="24"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="2145"/>
@@ -10844,7 +10863,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="4113"/>
@@ -10855,7 +10874,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="10974"/>
@@ -10866,7 +10885,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1893"/>
@@ -10877,7 +10896,7 @@
     <n v="57"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Alto"/>
     <s v="Pouco"/>
     <n v="1231"/>
@@ -10888,7 +10907,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="3656"/>
@@ -10899,7 +10918,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1154"/>
@@ -10910,7 +10929,7 @@
     <n v="45"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="4006"/>
@@ -10921,7 +10940,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="3069"/>
@@ -10932,7 +10951,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1740"/>
@@ -10943,7 +10962,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="2353"/>
@@ -10954,7 +10973,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3556"/>
@@ -10965,7 +10984,7 @@
     <n v="35"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Sem conta"/>
     <n v="2397"/>
@@ -10976,7 +10995,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="454"/>
@@ -10987,7 +11006,7 @@
     <n v="26"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="1715"/>
@@ -10998,7 +11017,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Moderado"/>
     <n v="2520"/>
@@ -11009,7 +11028,7 @@
     <n v="54"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="3568"/>
@@ -11020,7 +11039,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="7166"/>
@@ -11031,7 +11050,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3939"/>
@@ -11042,7 +11061,7 @@
     <n v="22"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1514"/>
@@ -11053,7 +11072,7 @@
     <n v="43"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="7393"/>
@@ -11064,7 +11083,7 @@
     <n v="29"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1193"/>
@@ -11075,7 +11094,7 @@
     <n v="36"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="7297"/>
@@ -11086,7 +11105,7 @@
     <n v="33"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2831"/>
@@ -11097,7 +11116,7 @@
     <n v="57"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Alto"/>
     <s v="Alto"/>
     <n v="1258"/>
@@ -11108,7 +11127,7 @@
     <n v="64"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="753"/>
@@ -11119,7 +11138,7 @@
     <n v="42"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Alto"/>
     <n v="2427"/>
@@ -11130,7 +11149,7 @@
     <n v="47"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2538"/>
@@ -11141,7 +11160,7 @@
     <n v="25"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="1264"/>
@@ -11152,7 +11171,7 @@
     <n v="49"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="8386"/>
@@ -11163,7 +11182,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="4844"/>
@@ -11174,7 +11193,7 @@
     <n v="28"/>
     <s v="H"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Alto"/>
     <n v="2923"/>
@@ -11185,7 +11204,7 @@
     <n v="26"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="8229"/>
@@ -11196,7 +11215,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="2028"/>
@@ -11207,7 +11226,7 @@
     <n v="25"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1433"/>
@@ -11218,7 +11237,7 @@
     <n v="33"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Alto"/>
     <n v="6289"/>
@@ -11229,7 +11248,7 @@
     <n v="64"/>
     <s v="H"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1409"/>
@@ -11240,7 +11259,7 @@
     <n v="29"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="6579"/>
@@ -11251,7 +11270,7 @@
     <n v="48"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Moderado"/>
     <n v="1743"/>
@@ -11262,7 +11281,7 @@
     <n v="37"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="3565"/>
@@ -11273,7 +11292,7 @@
     <n v="34"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Sem conta"/>
     <n v="1569"/>
@@ -11284,7 +11303,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="1"/>
-    <s v="Alugada"/>
+    <x v="2"/>
     <s v="Sem investimento"/>
     <s v="Pouco"/>
     <n v="1936"/>
@@ -11295,7 +11314,7 @@
     <n v="30"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3959"/>
@@ -11306,7 +11325,7 @@
     <n v="50"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Sem investimento"/>
     <s v="Sem conta"/>
     <n v="2390"/>
@@ -11317,7 +11336,7 @@
     <n v="31"/>
     <s v="H"/>
     <x v="1"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="1736"/>
@@ -11328,7 +11347,7 @@
     <n v="40"/>
     <s v="M"/>
     <x v="2"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="3857"/>
@@ -11339,7 +11358,7 @@
     <n v="38"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Pouco"/>
     <s v="Sem conta"/>
     <n v="804"/>
@@ -11350,7 +11369,7 @@
     <n v="23"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="De favor"/>
+    <x v="1"/>
     <s v="Pouco"/>
     <s v="Pouco"/>
     <n v="1845"/>
@@ -11361,7 +11380,7 @@
     <n v="27"/>
     <s v="M"/>
     <x v="0"/>
-    <s v="Propria"/>
+    <x v="0"/>
     <s v="Moderado"/>
     <s v="Moderado"/>
     <n v="4576"/>
@@ -11372,7 +11391,105 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC81EE6C-0B4B-8340-9F25-66B33D0E87AD}" name="Tabela dinâmica7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB83704E-B060-BA4E-BEA7-6907D547D32C}" name="Tabela dinâmica8" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A9:C13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Média de Inadimplencia" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Contagem de Escolaridade" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC81EE6C-0B4B-8340-9F25-66B33D0E87AD}" name="Tabela dinâmica7" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -11431,7 +11548,7 @@
     <dataField name="Contagem de Escolaridade" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -11440,7 +11557,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -40917,10 +41034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DCEAF2-F312-124D-8C5C-3A4AD558B4BB}">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40948,7 +41065,7 @@
       <c r="B4" s="9">
         <v>0.3411764705882353</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>170</v>
       </c>
     </row>
@@ -40959,7 +41076,7 @@
       <c r="B5" s="7">
         <v>0.29523809523809524</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5">
         <v>630</v>
       </c>
     </row>
@@ -40970,7 +41087,7 @@
       <c r="B6" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6">
         <v>200</v>
       </c>
     </row>
@@ -40981,7 +41098,62 @@
       <c r="B7" s="7">
         <v>0.3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.39106145251396646</v>
+      </c>
+      <c r="C10" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="C11" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="C12" s="11">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="11">
         <v>1000</v>
       </c>
     </row>
